--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1550.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1550.xlsx
@@ -354,10 +354,10 @@
         <v>1.653087891839387</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.085582202607289</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1550.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1550.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162663984751551</v>
+        <v>1.658546805381775</v>
       </c>
       <c r="B1">
-        <v>1.653087891839387</v>
+        <v>3.486228466033936</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.056802272796631</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.27882182598114</v>
       </c>
       <c r="E1">
-        <v>1.085582202607289</v>
+        <v>0.7499282360076904</v>
       </c>
     </row>
   </sheetData>
